--- a/biology/Zoologie/Argyrodes_borbonicus/Argyrodes_borbonicus.xlsx
+++ b/biology/Zoologie/Argyrodes_borbonicus/Argyrodes_borbonicus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Argyrodes borbonicus est une espèce d'araignées aranéomorphes de la famille des Theridiidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Argyrodes borbonicus est une espèce d'araignées aranéomorphes de la famille des Theridiidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique de La Réunion[1]. Elle fait donc partie  de la faune française d' Outre-Mer.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique de La Réunion. Elle fait donc partie  de la faune française d' Outre-Mer.
 </t>
         </is>
       </c>
@@ -542,13 +556,13 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'aspect  du prosoma mâle ('Fig. ) rappelle quelque peu celui d'Argyrodes chounguii (Mayotte) et de certaines espèces néotropicales du groupe spécifique d' Argyrodes trigonum (Exline &amp; Levi, 1962) dont l'araignée est,  par ailleurs,très différente.
 Longueur totale = 3,6 à 4 mm.
 La livrée est à peu près semblable dans les deux sexes.
-Prosome
-Le céphalothorax est brun et blanchâtre portant chez le mâle deux protubérances ou projections céphaliques bien visibles en microscopie électronique à balayage (Fig.1), l'une interoculaire, peu marquée, et l'autre en "corne" clypéale ascendante, la bosse frontale évoquant aussi l'aspect d'un "nez" d'où son rattachement au morphotype "nasuté" des Argyrodes. Chacune de ces saillies est garnie d'un toupet de poils et renferme la classique glande clypéale ou acronale des Argyrodes mâles. d'un volume toutefois réduit. Les pattes sont longues, tachées de brun. L'abdomen élevé, est bifide à son extrémité[2].
 </t>
         </is>
       </c>
@@ -574,12 +588,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Éthologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Elle vit sur la toile des Cyrtophora et de Nephilingis borbonica  avec Argyrodes minax[2].
+          <t>Prosome</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le céphalothorax est brun et blanchâtre portant chez le mâle deux protubérances ou projections céphaliques bien visibles en microscopie électronique à balayage (Fig.1), l'une interoculaire, peu marquée, et l'autre en "corne" clypéale ascendante, la bosse frontale évoquant aussi l'aspect d'un "nez" d'où son rattachement au morphotype "nasuté" des Argyrodes. Chacune de ces saillies est garnie d'un toupet de poils et renferme la classique glande clypéale ou acronale des Argyrodes mâles. d'un volume toutefois réduit. Les pattes sont longues, tachées de brun. L'abdomen élevé, est bifide à son extrémité.
 </t>
         </is>
       </c>
@@ -605,12 +625,14 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Étymologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'île Bourbon.
+          <t>Éthologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle vit sur la toile des Cyrtophora et de Nephilingis borbonica  avec Argyrodes minax.
 </t>
         </is>
       </c>
@@ -636,10 +658,45 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Étymologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce lui a été donné en référence au lieu de sa découverte, l'île Bourbon.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Argyrodes_borbonicus</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Argyrodes_borbonicus</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Lopez, 1990: Contribution à l'étude des araignées réunionnaises: Note préliminaire. Bulletin de la Société Sciences Nat. (Venette-Compiègne), no 67, p. 13-22.</t>
         </is>
